--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16824" windowHeight="9372" activeTab="6"/>
+    <workbookView windowWidth="22176" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -55,13 +55,19 @@
     <t>管理员登录退出系统</t>
   </si>
   <si>
-    <t>之前学到的验证码不字母会</t>
+    <t>之前学到的验证码不怎么会</t>
   </si>
   <si>
     <t>刚开始的时候，applicationContext里忘记配置   &lt;property name="mappingResources"&gt;&lt;list&gt; &lt;value&gt; &lt;/value&gt;  &lt;/list&gt; &lt;/property&gt;</t>
   </si>
   <si>
     <t>旅游线路类型增删改查</t>
+  </si>
+  <si>
+    <t>上传图片不会</t>
+  </si>
+  <si>
+    <t>修改线路类型的时候报错</t>
   </si>
   <si>
     <t>旅游线路增删改查</t>
@@ -97,13 +103,28 @@
     <t>查看删除历史订单</t>
   </si>
   <si>
+    <t>登陆时，系统导出的xml出错导致登不上</t>
+  </si>
+  <si>
+    <t>添加、修改有点小麻烦，最后在做</t>
+  </si>
+  <si>
+    <t>文件上传未作</t>
+  </si>
+  <si>
     <t>2019.6.25</t>
   </si>
   <si>
-    <t>退出没做，登录校验有问题</t>
+    <t>登录校验有问题，验证码不会做</t>
   </si>
   <si>
-    <t>退出系统暂时没做</t>
+    <t>2019.6.26</t>
+  </si>
+  <si>
+    <t>校验，验证码未做</t>
+  </si>
+  <si>
+    <t>延长时间，设计jsp页面</t>
   </si>
 </sst>
 </file>
@@ -112,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -171,14 +192,96 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,70 +302,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -273,16 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,29 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -334,6 +369,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -341,17 +383,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -361,33 +409,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -445,13 +466,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +580,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,25 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,133 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,22 +770,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,33 +809,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +840,28 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,11 +892,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,15 +904,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,196 +975,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,7 +1185,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1648,8 +1669,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1718,7 +1739,7 @@
         <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>11</v>
@@ -1737,15 +1758,23 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -1759,7 +1788,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -1782,10 +1811,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -1799,7 +1828,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -1813,7 +1842,7 @@
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -1827,7 +1856,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -1841,7 +1870,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -1855,7 +1884,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -1869,7 +1898,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -1883,7 +1912,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -1916,8 +1945,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1986,10 +2015,12 @@
         <v>43640</v>
       </c>
       <c r="F3" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
@@ -2000,15 +2031,21 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9">
+        <v>43641</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.4</v>
+      </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2022,7 +2059,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2045,10 +2082,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2062,7 +2099,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2076,7 +2113,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2090,7 +2127,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2104,7 +2141,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2118,7 +2155,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2132,7 +2169,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2146,7 +2183,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2177,7 +2214,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2260,17 +2297,21 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>40355</v>
+      </c>
       <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2284,7 +2325,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2307,10 +2348,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2324,7 +2365,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2338,7 +2379,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2352,7 +2393,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2366,7 +2407,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2380,7 +2421,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2394,7 +2435,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2408,7 +2449,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2439,7 +2480,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2505,7 +2546,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="F3" s="10">
         <v>0.5</v>
@@ -2530,7 +2571,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2544,7 +2585,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2567,10 +2608,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2584,7 +2625,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2598,7 +2639,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2612,7 +2653,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2626,7 +2667,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2640,7 +2681,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2654,7 +2695,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2668,7 +2709,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2699,7 +2740,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2765,13 +2806,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3" s="10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3"/>
@@ -2785,15 +2826,19 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2807,7 +2852,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2830,10 +2875,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2846,7 +2891,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2860,7 +2905,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2874,7 +2919,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2888,7 +2933,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2902,7 +2947,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2916,7 +2961,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2930,7 +2975,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2961,7 +3006,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3030,10 +3075,10 @@
         <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" s="12"/>
     </row>
@@ -3046,29 +3091,35 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.6</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3091,10 +3142,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3108,7 +3159,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3122,7 +3173,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3136,7 +3187,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3150,7 +3201,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3164,7 +3215,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3178,7 +3229,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3192,7 +3243,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3222,8 +3273,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3287,15 +3338,19 @@
       <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>43641</v>
+      </c>
       <c r="E3" s="9">
         <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
@@ -3306,15 +3361,19 @@
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.2</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -3328,7 +3387,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3351,10 +3410,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3368,7 +3427,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3382,7 +3441,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3396,7 +3455,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3410,7 +3469,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3424,7 +3483,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3438,7 +3497,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3452,7 +3511,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9084"/>
+    <workbookView windowWidth="23028" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -67,12 +67,15 @@
     <t>上传图片不会</t>
   </si>
   <si>
-    <t>修改线路类型的时候报错</t>
+    <t>修改线路类型的时候报错，  c:forEach  忘记加jstl的标签库（&lt;%@taglib prefix="c" uri="http://java.sun.com/jsp/jstl/core" %&gt;），忘记懒加载（lazy="false"）</t>
   </si>
   <si>
     <t>旅游线路增删改查</t>
   </si>
   <si>
+    <t>图片不怎么会，修改的时候必须把所有列都要写出来</t>
+  </si>
+  <si>
     <t>团购信息改查</t>
   </si>
   <si>
@@ -109,7 +112,13 @@
     <t>添加、修改有点小麻烦，最后在做</t>
   </si>
   <si>
-    <t>文件上传未作</t>
+    <t>上传图片还没弄清楚</t>
+  </si>
+  <si>
+    <t>图片显示未作</t>
+  </si>
+  <si>
+    <t>文件上传未实现</t>
   </si>
   <si>
     <t>2019.6.25</t>
@@ -121,7 +130,13 @@
     <t>2019.6.26</t>
   </si>
   <si>
-    <t>校验，验证码未做</t>
+    <t>2019.6.27</t>
+  </si>
+  <si>
+    <t>修改有点问题</t>
+  </si>
+  <si>
+    <t>添加有点问题</t>
   </si>
   <si>
     <t>延长时间，设计jsp页面</t>
@@ -192,16 +207,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,8 +256,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,14 +324,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,64 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,52 +384,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="54"/>
@@ -383,8 +398,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -397,19 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,19 +481,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,19 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,25 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,133 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,54 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -825,43 +792,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +814,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -892,8 +896,28 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -919,15 +943,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,196 +990,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,14 +1200,14 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,6 +1263,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1669,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1681,7 +1702,7 @@
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54" style="2" customWidth="1"/>
     <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -1780,15 +1801,21 @@
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9">
+        <v>43643</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -1811,10 +1838,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -1828,7 +1855,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -1842,7 +1869,7 @@
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -1856,7 +1883,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -1870,7 +1897,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -1884,7 +1911,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -1898,7 +1925,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -1912,7 +1939,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -1924,7 +1951,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1946,7 +1973,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2010,7 +2037,9 @@
       <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>43640</v>
+      </c>
       <c r="E3" s="9">
         <v>43640</v>
       </c>
@@ -2019,7 +2048,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -2039,7 +2068,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -2051,15 +2080,21 @@
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2082,10 +2117,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2099,7 +2134,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2113,7 +2148,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2127,7 +2162,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2141,7 +2176,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2155,7 +2190,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2169,7 +2204,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2183,7 +2218,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2214,7 +2249,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2298,13 +2333,13 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>40355</v>
+        <v>43642</v>
       </c>
       <c r="F4" s="10">
         <v>0.9</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2317,15 +2352,21 @@
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9">
+        <v>43643</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2348,10 +2389,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2365,7 +2406,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2379,7 +2420,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2393,7 +2434,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2407,7 +2448,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2421,7 +2462,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2435,7 +2476,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2449,7 +2490,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2585,7 +2626,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2608,10 +2649,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2625,7 +2666,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2639,7 +2680,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2653,7 +2694,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2667,7 +2708,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2681,7 +2722,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2695,7 +2736,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2709,7 +2750,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2740,7 +2781,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2806,13 +2847,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="10">
         <v>0.8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3"/>
@@ -2827,10 +2868,10 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" s="10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
@@ -2844,15 +2885,19 @@
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.2</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2875,10 +2920,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2891,7 +2936,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2905,7 +2950,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2919,7 +2964,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2933,56 +2978,56 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
@@ -3006,7 +3051,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3075,11 +3120,9 @@
         <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -3095,9 +3138,11 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -3109,17 +3154,21 @@
         <v>43642</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>43642</v>
+      </c>
       <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3142,10 +3191,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3159,7 +3208,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3173,7 +3222,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3187,7 +3236,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3201,7 +3250,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3215,7 +3264,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3229,7 +3278,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3243,7 +3292,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3349,7 +3398,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -3387,7 +3436,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3410,10 +3459,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3427,7 +3476,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3441,7 +3490,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3455,7 +3504,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3469,7 +3518,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3483,7 +3532,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3497,7 +3546,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3511,7 +3560,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -109,7 +109,7 @@
     <t>登陆时，系统导出的xml出错导致登不上</t>
   </si>
   <si>
-    <t>添加、修改有点小麻烦，最后在做</t>
+    <t>修改有点小麻烦，最后在做、映射时，Hib版本5.2错误</t>
   </si>
   <si>
     <t>上传图片还没弄清楚</t>
@@ -118,7 +118,7 @@
     <t>图片显示未作</t>
   </si>
   <si>
-    <t>文件上传未实现</t>
+    <t>修改报错</t>
   </si>
   <si>
     <t>2019.6.25</t>
@@ -133,10 +133,16 @@
     <t>2019.6.27</t>
   </si>
   <si>
+    <t>图片上传未做</t>
+  </si>
+  <si>
+    <t>2019.6.28</t>
+  </si>
+  <si>
     <t>修改有点问题</t>
   </si>
   <si>
-    <t>添加有点问题</t>
+    <t>添加有问题文件上传未做</t>
   </si>
   <si>
     <t>延长时间，设计jsp页面</t>
@@ -147,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -207,21 +213,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,16 +250,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,12 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +299,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -279,107 +398,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -392,34 +425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -481,205 +487,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,17 +802,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,17 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,11 +870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,15 +902,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -908,26 +914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +931,24 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,198 +996,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,7 +1213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,6 +1269,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1690,8 +1699,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1951,7 +1960,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1973,7 +1982,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2041,7 +2050,7 @@
         <v>43640</v>
       </c>
       <c r="E3" s="9">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -2061,10 +2070,10 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
@@ -2081,7 +2090,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="F5" s="10">
         <v>0.6</v>
@@ -2100,8 +2109,12 @@
         <v>43643</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9">
+        <v>43644</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
@@ -2249,7 +2262,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2336,7 +2349,7 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>31</v>
@@ -2356,11 +2369,9 @@
         <v>43643</v>
       </c>
       <c r="F5" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
@@ -2372,9 +2383,15 @@
         <v>43643</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="9">
+        <v>43644</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
@@ -2781,7 +2798,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2889,9 +2906,11 @@
         <v>36</v>
       </c>
       <c r="F5" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
@@ -2903,8 +2922,12 @@
         <v>43643</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.4</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
@@ -2985,7 +3008,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
@@ -2999,7 +3022,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
@@ -3013,7 +3036,7 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
@@ -3027,7 +3050,7 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
@@ -3051,7 +3074,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3141,7 +3164,7 @@
         <v>0.7</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -3161,7 +3184,7 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -3174,8 +3197,12 @@
         <v>43643</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9">
+        <v>43644</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
@@ -3398,7 +3425,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>团购信息改查</t>
+  </si>
+  <si>
+    <t>基本上完成了，就是图片</t>
+  </si>
+  <si>
+    <t>数组越界</t>
   </si>
   <si>
     <t>前台</t>
@@ -213,6 +219,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,7 +257,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,19 +309,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
@@ -270,24 +337,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,43 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -344,28 +389,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -375,61 +436,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -487,13 +493,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,193 +553,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,30 +794,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -822,65 +804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,6 +825,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -915,7 +877,51 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,7 +945,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,7 +953,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -996,196 +1002,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,14 +1212,14 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,9 +1275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1700,7 +1703,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1831,9 +1834,15 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
       <c r="A7" s="7"/>
@@ -1847,24 +1856,28 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>43644</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -1878,7 +1891,7 @@
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -1892,7 +1905,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -1906,7 +1919,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -1920,7 +1933,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -1934,7 +1947,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -1948,7 +1961,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -1960,7 +1973,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2057,7 +2070,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -2077,7 +2090,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -2096,7 +2109,7 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2130,10 +2143,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2147,7 +2160,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2161,7 +2174,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2175,7 +2188,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2189,7 +2202,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2203,7 +2216,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2217,7 +2230,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2231,7 +2244,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2352,7 +2365,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2390,7 +2403,7 @@
         <v>0.7</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11"/>
     </row>
@@ -2406,10 +2419,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2423,7 +2436,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2437,7 +2450,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2451,7 +2464,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2465,7 +2478,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2479,7 +2492,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2493,7 +2506,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2507,7 +2520,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2666,10 +2679,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2683,7 +2696,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2697,7 +2710,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2711,7 +2724,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2725,7 +2738,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2739,7 +2752,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2753,7 +2766,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2767,7 +2780,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2864,13 +2877,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="10">
         <v>0.8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3"/>
@@ -2885,7 +2898,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="10">
         <v>0.7</v>
@@ -2903,13 +2916,13 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="21">
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2923,9 +2936,9 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="22">
+        <v>40</v>
+      </c>
+      <c r="F6" s="21">
         <v>0.4</v>
       </c>
       <c r="G6" s="11"/>
@@ -2943,10 +2956,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2959,7 +2972,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2973,7 +2986,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2987,7 +3000,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3001,56 +3014,56 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
@@ -3164,7 +3177,7 @@
         <v>0.7</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -3184,7 +3197,7 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -3218,10 +3231,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3235,7 +3248,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3249,7 +3262,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3263,7 +3276,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3277,7 +3290,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3291,7 +3304,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3305,7 +3318,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3319,7 +3332,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3425,7 +3438,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -3486,10 +3499,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3503,7 +3516,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3517,7 +3530,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3531,7 +3544,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3545,7 +3558,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3559,7 +3572,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3573,7 +3586,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3587,7 +3600,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="23028" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -91,6 +91,9 @@
     <t>用户登录注册</t>
   </si>
   <si>
+    <t>2019/7/1·</t>
+  </si>
+  <si>
     <t>旅游线路分类展示</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>图片显示未作</t>
   </si>
   <si>
-    <t>修改报错</t>
-  </si>
-  <si>
     <t>2019.6.25</t>
   </si>
   <si>
@@ -145,7 +145,7 @@
     <t>2019.6.28</t>
   </si>
   <si>
-    <t>修改有点问题</t>
+    <t>2019.7.1</t>
   </si>
   <si>
     <t>添加有问题文件上传未做</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -219,9 +219,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,9 +321,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,15 +344,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,53 +375,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -330,49 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,18 +404,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -409,13 +423,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -429,13 +436,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -493,37 +493,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,169 +607,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +794,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -804,6 +834,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,23 +865,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,54 +924,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,17 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,15 +954,6 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -1008,190 +1008,190 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,7 +1212,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1833,7 +1833,9 @@
         <v>43643</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>43643</v>
+      </c>
       <c r="F6" s="10">
         <v>0.9</v>
       </c>
@@ -1867,7 +1869,9 @@
       <c r="D8" s="9">
         <v>43644</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
@@ -1877,7 +1881,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -1891,7 +1895,7 @@
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -1905,7 +1909,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -1919,7 +1923,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -1933,7 +1937,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -1947,7 +1951,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -1961,7 +1965,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -1995,7 +1999,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2070,7 +2074,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -2086,11 +2090,11 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -2106,10 +2110,10 @@
         <v>43643</v>
       </c>
       <c r="F5" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2126,7 +2130,7 @@
         <v>43644</v>
       </c>
       <c r="F6" s="10">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2160,7 +2164,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2174,7 +2178,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2188,7 +2192,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2202,7 +2206,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2216,7 +2220,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2230,7 +2234,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2244,7 +2248,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2275,7 +2279,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2365,7 +2369,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2397,14 +2401,12 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="F6" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
@@ -2436,7 +2438,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2450,7 +2452,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2464,7 +2466,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2478,7 +2480,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2492,7 +2494,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2506,7 +2508,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2520,7 +2522,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2696,7 +2698,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2710,7 +2712,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2724,7 +2726,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2738,7 +2740,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2752,7 +2754,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2766,7 +2768,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2780,7 +2782,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2811,7 +2813,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2939,7 +2941,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="21">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2964,15 +2966,19 @@
       <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2986,7 +2992,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3000,7 +3006,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3014,7 +3020,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3028,7 +3034,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3042,7 +3048,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3056,7 +3062,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3087,7 +3093,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3174,11 +3180,9 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -3214,7 +3218,7 @@
         <v>43644</v>
       </c>
       <c r="F6" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -3240,15 +3244,19 @@
         <v>43644</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9">
+        <v>43647</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3262,7 +3270,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3276,7 +3284,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3290,7 +3298,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3304,7 +3312,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3318,7 +3326,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3332,7 +3340,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3516,7 +3524,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3530,7 +3538,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3544,7 +3552,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3558,7 +3566,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3572,7 +3580,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3586,7 +3594,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3600,7 +3608,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9684"/>
+    <workbookView windowWidth="23028" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>旅游线路增删改查</t>
   </si>
   <si>
-    <t>图片不怎么会，修改的时候必须把所有列都要写出来</t>
+    <t>修改图片不能，修改的时候必须把所有列都要写出来</t>
   </si>
   <si>
     <t>团购信息改查</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -218,10 +218,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,96 +334,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -343,39 +388,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="15"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -387,55 +436,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -493,217 +493,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,17 +793,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="23"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,7 +851,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +871,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -873,50 +897,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
       <bottom style="double">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,15 +920,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="44"/>
       </bottom>
@@ -954,7 +930,31 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,190 +1008,190 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,7 +1212,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1817,7 +1817,7 @@
         <v>43643</v>
       </c>
       <c r="F5" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>17</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹\interviewQuestion\hgkj_02\吴正男\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE67C6-CE4B-477B-90C1-58E9D0654ED7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8112A-BE98-40D1-9222-2E157EBCE243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>上传图片还没弄清楚</t>
   </si>
   <si>
-    <t>图片显示未作</t>
-  </si>
-  <si>
     <t>2019.6.25</t>
   </si>
   <si>
@@ -158,13 +155,17 @@
   </si>
   <si>
     <t>延长时间，设计jsp页面</t>
+  </si>
+  <si>
+    <t>修改未作</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -353,6 +354,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -699,26 +707,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,6 +761,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1150,276 +1161,276 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="54" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>0.8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>43642</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>0.8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>43643</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>0.8</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>43643</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>0.9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>43644</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
+      <c r="A16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1440,270 +1451,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>43640</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>43642</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>0.8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>43643</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>0.8</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>43644</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>0.8</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43647</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1724,260 +1735,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>43642</v>
       </c>
-      <c r="F4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="F4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>43643</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>0.85</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>43647</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>0.95</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>43647</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2004,240 +2019,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>0.5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2264,260 +2279,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43641</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43641</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43642</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43642</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="23">
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43643</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43644</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43643</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43644</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2544,258 +2559,258 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>0.9</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>43642</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>0.8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>43642</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>0.7</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="G5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>43644</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>0.8</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43647</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2822,248 +2837,248 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43640</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>43641</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>43641</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43641</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>43642</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <v>0.2</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43642</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43643</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43644</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43645</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43646</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43647</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43648</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43649</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43650</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43651</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹\interviewQuestion\hgkj_02\吴正男\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8112A-BE98-40D1-9222-2E157EBCE243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21923" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -130,12 +124,15 @@
     <t>上传图片还没弄清楚</t>
   </si>
   <si>
+    <t>修改未作</t>
+  </si>
+  <si>
+    <t>登录校验有问题，验证码不会做</t>
+  </si>
+  <si>
     <t>2019.6.25</t>
   </si>
   <si>
-    <t>登录校验有问题，验证码不会做</t>
-  </si>
-  <si>
     <t>2019.6.26</t>
   </si>
   <si>
@@ -155,17 +152,19 @@
   </si>
   <si>
     <t>延长时间，设计jsp页面</t>
-  </si>
-  <si>
-    <t>修改未作</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,14 +189,12 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,14 +202,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,14 +215,43 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,30 +260,172 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -267,58 +433,17 @@
       <sz val="11"/>
       <color indexed="54"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,45 +451,28 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,31 +493,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +667,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -538,6 +808,89 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -549,10 +902,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -563,15 +931,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +946,15 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,84 +998,228 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,7 +1227,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -731,11 +1252,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,63 +1286,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="标题 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="差 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="好 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="适中 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="输出 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="标题 5" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="汇总 2" xfId="14"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="20% - 着色 5" xfId="23"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="40% - 着色 4" xfId="31"/>
+    <cellStyle name="计算" xfId="32" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
+    <cellStyle name="好 2" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="37" builtinId="24"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="40% - 着色 5" xfId="39"/>
+    <cellStyle name="好" xfId="40" builtinId="26"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
+    <cellStyle name="标题 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="55" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="标题 2 2" xfId="62"/>
+    <cellStyle name="标题 3 2" xfId="63"/>
+    <cellStyle name="标题 4 2" xfId="64"/>
+    <cellStyle name="差 2" xfId="65"/>
+    <cellStyle name="常规 2" xfId="66"/>
+    <cellStyle name="检查单元格 2" xfId="67"/>
+    <cellStyle name="解释性文本 2" xfId="68"/>
+    <cellStyle name="警告文本 2" xfId="69"/>
+    <cellStyle name="链接单元格 2" xfId="70"/>
+    <cellStyle name="输入 2" xfId="71"/>
+    <cellStyle name="注释 2" xfId="72"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1147,290 +1694,290 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
     <col min="7" max="7" width="54" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>0.8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>43642</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>0.8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>43643</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>0.8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>43643</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>0.9</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>43644</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1440,281 +1987,281 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>43640</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>43642</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>0.8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>43643</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>0.8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>43644</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>0.8</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>43647</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>0.5</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1724,275 +2271,275 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>43642</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>0.9</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>43649</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43643</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>43647</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>0.95</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>43647</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>0.9</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2002,257 +2549,275 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+      <c r="F3" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>43643</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>43645</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>43647</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2262,277 +2827,277 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="12"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.7</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="21">
         <v>0.5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="21">
         <v>0.6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10">
         <v>0.5</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2542,275 +3107,275 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>0.9</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>43642</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>0.8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>43642</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>0.7</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43643</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>43644</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>0.8</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43644</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>43647</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>0.5</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2820,265 +3385,279 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>43641</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>43641</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43641</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="9">
+        <v>43646</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43649</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
         <v>43642</v>
       </c>
-      <c r="F4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="D5" s="9">
+        <v>43649</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43649</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43643</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43644</v>
+      </c>
+      <c r="D8" s="9">
         <v>43642</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43643</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6">
-        <v>43644</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5" t="s">
+      <c r="E8" s="9">
+        <v>43649</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43645</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43646</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43647</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="19">
         <v>43648</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="19">
         <v>43649</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="19">
         <v>43650</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="19">
         <v>43651</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3088,9 +3667,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21923" windowHeight="8435"/>
+    <workbookView windowWidth="16871" windowHeight="7775"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="45">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>旅游线路分类展示</t>
+  </si>
+  <si>
+    <t>2019/7/4·</t>
   </si>
   <si>
     <t>旅游线路展示</t>
@@ -220,6 +223,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -227,10 +238,119 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -249,22 +369,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +410,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,119 +425,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -409,44 +462,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -455,19 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -493,169 +496,229 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,67 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,41 +797,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -845,15 +831,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,11 +859,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,17 +900,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,17 +912,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +940,30 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,240 +1000,225 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1702,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1887,35 +1890,45 @@
         <v>43645</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
@@ -1923,13 +1936,15 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1937,13 +1952,15 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1951,13 +1968,15 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1965,13 +1984,15 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -2074,7 +2095,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -2094,7 +2115,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
@@ -2113,7 +2134,7 @@
         <v>0.8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2182,7 +2203,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2196,7 +2217,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2210,7 +2231,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2224,7 +2245,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2238,7 +2259,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2252,7 +2273,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2391,7 +2412,7 @@
         <v>0.85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2460,7 +2481,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2474,7 +2495,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2488,7 +2509,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2502,7 +2523,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2516,7 +2537,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2530,7 +2551,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2633,7 +2654,7 @@
         <v>0.9</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12"/>
     </row>
@@ -2738,7 +2759,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2752,7 +2773,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2766,7 +2787,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2780,7 +2801,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2794,7 +2815,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2808,7 +2829,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2905,13 +2926,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10">
         <v>0.8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3"/>
@@ -2926,7 +2947,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10">
         <v>0.7</v>
@@ -2944,13 +2965,13 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="21">
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2964,7 +2985,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="21">
         <v>0.6</v>
@@ -2993,7 +3014,7 @@
         <v>43644</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10">
         <v>0.5</v>
@@ -3018,7 +3039,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3032,7 +3053,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3046,7 +3067,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3060,7 +3081,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3074,7 +3095,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3088,7 +3109,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3227,7 +3248,7 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -3296,7 +3317,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3310,7 +3331,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3324,7 +3345,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3338,7 +3359,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3352,7 +3373,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3366,7 +3387,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3472,7 +3493,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
@@ -3578,7 +3599,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3592,7 +3613,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3606,7 +3627,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3620,7 +3641,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3634,7 +3655,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3648,7 +3669,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16871" windowHeight="7775"/>
+    <workbookView windowWidth="23028" windowHeight="9947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -221,6 +221,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -229,76 +318,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,35 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -353,20 +405,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -377,87 +440,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -470,7 +458,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -496,19 +496,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +604,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,19 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,85 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,31 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,16 +796,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -835,26 +868,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,17 +898,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="23"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,27 +924,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,17 +944,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,16 +957,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,229 +985,244 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,6 +1284,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1705,7 +1708,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1998,7 +2001,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2581,8 +2584,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2671,7 +2674,7 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
@@ -2707,7 +2710,7 @@
         <v>43645</v>
       </c>
       <c r="F6" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2751,8 +2754,12 @@
         <v>43645</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="9">
+        <v>43649</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="17"/>
     </row>
@@ -2765,8 +2772,12 @@
         <v>43646</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9">
+        <v>43650</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.2</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
     </row>
@@ -2793,8 +2804,12 @@
         <v>43648</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="19">
+        <v>43650</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.2</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>

--- a/吴正男/编码进度表-吴正男.xlsx
+++ b/吴正男/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947" activeTab="3"/>
+    <workbookView windowWidth="17088" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -222,23 +222,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +242,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -264,6 +272,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -282,7 +387,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,117 +431,26 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,44 +462,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -462,18 +474,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -496,6 +496,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,229 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,11 +796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,8 +829,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,45 +854,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -909,6 +885,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -923,8 +938,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,56 +995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,224 +1005,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,9 +1284,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1708,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1801,7 +1798,7 @@
         <v>43642</v>
       </c>
       <c r="F4" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>14</v>
@@ -1823,7 +1820,7 @@
         <v>43643</v>
       </c>
       <c r="F5" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>17</v>
@@ -2001,7 +1998,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2584,7 +2581,7 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2775,7 +2772,7 @@
       <c r="E10" s="9">
         <v>43650</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>0.2</v>
       </c>
       <c r="G10" s="11"/>
